--- a/RelatoriosTemplates/AuthorsTemplate.xlsx
+++ b/RelatoriosTemplates/AuthorsTemplate.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0FC6EC-45C4-4AF3-A889-745D24AF62AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E9F750-3D18-4B35-91CF-468A9F79FDEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -259,54 +259,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -320,26 +279,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -626,7 +582,7 @@
   <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,7 +598,7 @@
       <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -656,13 +612,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="15" t="s">

--- a/RelatoriosTemplates/AuthorsTemplate.xlsx
+++ b/RelatoriosTemplates/AuthorsTemplate.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E9F750-3D18-4B35-91CF-468A9F79FDEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0FC6EC-45C4-4AF3-A889-745D24AF62AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -259,13 +259,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -279,23 +320,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -582,7 +626,7 @@
   <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,7 +642,7 @@
       <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -612,13 +656,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="15" t="s">
